--- a/BOMs/Total_BOM_0603.xlsx
+++ b/BOMs/Total_BOM_0603.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\Desktop\UIUCClasses\ECE445\SeniorDesign\BOMs\Final_BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\Desktop\UIUCClasses\ECE445\SeniorDesign\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BCD318-8254-4DE0-A794-6D5080C522E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1DEDE-CBE8-40D7-888B-D29D0F171E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>R12, R27, R32, R8, R2, R17, R4</t>
   </si>
   <si>
-    <t>R37, R38, R39, R48, R44, R45, R46, R47, R1, R5, R36</t>
-  </si>
-  <si>
     <t>R7, R11, R22, R31, R9, R13, R28, R30, R10, R16, R30, R35, R15, R14, R29, R34</t>
   </si>
   <si>
@@ -183,13 +180,16 @@
     <t>Final Total</t>
   </si>
   <si>
-    <t>C2, C5, C6, C8, C19</t>
-  </si>
-  <si>
     <t>4.7u</t>
   </si>
   <si>
     <t>C7, C8, C9</t>
+  </si>
+  <si>
+    <t>R37, R38, R39, R48, R44, R45, R46, R47, R5, R36</t>
+  </si>
+  <si>
+    <t>C6, C8, C19</t>
   </si>
 </sst>
 </file>
@@ -233,13 +233,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,68 +557,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>100</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <v>4</v>
       </c>
       <c r="K3">
@@ -630,19 +615,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>120</v>
       </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>100</v>
       </c>
       <c r="H4">
@@ -658,24 +640,21 @@
         <v>4</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K11" si="0">H4+(I4*J4)</f>
+        <f t="shared" ref="K4:K10" si="0">H4+(I4*J4)</f>
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>120</v>
       </c>
       <c r="H5">
@@ -686,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J11" si="1">$J$3</f>
+        <f t="shared" ref="J5:J10" si="1">$J$3</f>
         <v>4</v>
       </c>
       <c r="K5">
@@ -695,17 +674,16 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>200</v>
       </c>
       <c r="H6">
@@ -725,24 +703,21 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>16</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>4</v>
       </c>
       <c r="H7">
         <f>D6</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <f>D13</f>
@@ -754,14 +729,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>36</v>
       </c>
       <c r="H8">
@@ -781,15 +753,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9">
@@ -810,19 +777,16 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5" t="s">
+      <c r="G10" t="s">
         <v>38</v>
       </c>
       <c r="H10">
@@ -842,124 +806,79 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="D11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H2:I10">
@@ -977,7 +896,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,59 +909,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" t="s">
         <v>28</v>
       </c>
       <c r="I3">
@@ -1053,32 +964,30 @@
         <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L3">
         <f>I3+(J3*K3)</f>
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="H4" t="s">
         <v>8</v>
       </c>
       <c r="I4">
-        <f>D3</f>
+        <f t="shared" ref="I4:I9" si="0">D3</f>
         <v>2</v>
       </c>
       <c r="J4">
@@ -1086,66 +995,62 @@
       </c>
       <c r="K4">
         <f>$K$3</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L12" si="0">I4+(J4*K4)</f>
+        <f t="shared" ref="L4:L12" si="1">I4+(J4*K4)</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I5">
-        <f>D4</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="J5">
         <f>D18</f>
         <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K17" si="1">$K$3</f>
-        <v>1</v>
+        <f t="shared" ref="K5:K13" si="2">$K$3</f>
+        <v>4</v>
       </c>
       <c r="L5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6">
-        <f>D5</f>
         <v>2</v>
       </c>
       <c r="J6">
@@ -1153,33 +1058,31 @@
         <v>2</v>
       </c>
       <c r="K6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7">
-        <f>D6</f>
         <v>2</v>
       </c>
       <c r="J7">
@@ -1187,82 +1090,72 @@
         <v>2</v>
       </c>
       <c r="K7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2" t="s">
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I8">
-        <f>D7</f>
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I10">
@@ -1273,29 +1166,25 @@
         <v>1</v>
       </c>
       <c r="K10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I11">
@@ -1306,29 +1195,27 @@
         <v>1</v>
       </c>
       <c r="K11">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I12">
@@ -1339,29 +1226,27 @@
         <v>3</v>
       </c>
       <c r="K12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="H13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I13">
@@ -1372,106 +1257,86 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L17" si="2">I13+(J13*K13)</f>
-        <v>1</v>
+        <f t="shared" ref="L13" si="3">I13+(J13*K13)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:J2">

--- a/BOMs/Total_BOM_0603.xlsx
+++ b/BOMs/Total_BOM_0603.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\Desktop\UIUCClasses\ECE445\SeniorDesign\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\College\ECE\445\SeniorDesign\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E1DEDE-CBE8-40D7-888B-D29D0F171E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C0C21B-7570-49FC-B69D-59C7445A16F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Res" sheetId="1" r:id="rId1"/>
@@ -541,27 +541,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="91.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.265625" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="14.73046875" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" customWidth="1"/>
+    <col min="10" max="10" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -587,7 +587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -614,7 +614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -644,7 +644,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>49</v>
       </c>
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -732,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="G8" t="s">
         <v>36</v>
       </c>
@@ -752,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -776,7 +776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -805,7 +805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
@@ -816,7 +816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
@@ -827,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
@@ -860,23 +860,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
@@ -899,21 +899,21 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" customWidth="1"/>
+    <col min="11" max="11" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -941,7 +941,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -971,7 +971,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="H9" s="1" t="s">
@@ -1151,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1278,7 +1278,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1330,11 +1330,11 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>

--- a/BOMs/Total_BOM_0603.xlsx
+++ b/BOMs/Total_BOM_0603.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhruv\Documents\College\ECE\445\SeniorDesign\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C0C21B-7570-49FC-B69D-59C7445A16F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B844BB-78CB-4393-A089-10F5A6BD842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -213,12 +213,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -233,10 +239,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,7 +549,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -597,19 +604,19 @@
       <c r="D3">
         <v>7</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
         <v>6</v>
       </c>
-      <c r="J3">
-        <v>4</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
         <f>H3+(I3*J3)</f>
         <v>24</v>
       </c>
@@ -624,22 +631,22 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f>D3</f>
         <v>7</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f>D11</f>
         <v>4</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <f>$J$3</f>
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <f t="shared" ref="K4:K10" si="0">H4+(I4*J4)</f>
         <v>23</v>
       </c>
@@ -654,21 +661,21 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>120</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f>D4</f>
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" ref="J5:J10" si="1">$J$3</f>
         <v>4</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -683,21 +690,21 @@
       <c r="D6">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>200</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f>D5</f>
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -712,42 +719,42 @@
       <c r="D7">
         <v>16</v>
       </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3">
         <f>D6</f>
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f>D13</f>
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <f>D13</f>
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -756,22 +763,22 @@
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <f>D7</f>
         <v>16</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f>D14</f>
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -786,21 +793,21 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <f>D15</f>
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
